--- a/docs/Servicios-Toures-Balon_V1.xlsx
+++ b/docs/Servicios-Toures-Balon_V1.xlsx
@@ -1,14 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22021"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="52" documentId="11_A50159DB82521D73B637C0F6E1CE85C03373039F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0B6A7AC4-9B52-480C-BFBE-359F82A57D27}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu.sharepoint.com/sites/motedequeso/Shared Documents/PICA/Toures Balón/PICA/Proyecto Final/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="247" documentId="11_30C246706966B1A52784E229FB5789D77FB1B059" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{2A7E1B51-4798-D242-AD82-39AE82603BCB}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="v1" sheetId="2" r:id="rId2"/>
+    <sheet name="V2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -23,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="150">
   <si>
     <t>Lista de servicios:</t>
   </si>
@@ -80,13 +87,406 @@
   </si>
   <si>
     <t>Clientes</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Comando</t>
+  </si>
+  <si>
+    <t>Evento</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Iniciar sesion</t>
+  </si>
+  <si>
+    <t>Ingresar a pantallas</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>Registrar auditoria</t>
+  </si>
+  <si>
+    <t>Crear auditoria</t>
+  </si>
+  <si>
+    <t>Consultar espectaculos</t>
+  </si>
+  <si>
+    <t>Consultar espectaculos con disponibilidad</t>
+  </si>
+  <si>
+    <t>Consultar metodos de pago</t>
+  </si>
+  <si>
+    <t>Enviar correos</t>
+  </si>
+  <si>
+    <t>Enviar correo</t>
+  </si>
+  <si>
+    <t>Comprar espectaculo</t>
+  </si>
+  <si>
+    <t>Comprar hospedaje</t>
+  </si>
+  <si>
+    <t>Comprar transporte</t>
+  </si>
+  <si>
+    <t>Notificar al cliente la compra correcta del espectaculo</t>
+  </si>
+  <si>
+    <t>Notificar al asesor que la compra no fue exitosa</t>
+  </si>
+  <si>
+    <t>Notificar al asesor</t>
+  </si>
+  <si>
+    <t>Registrar compra en sistema de contabilidad</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Administrar espectaculos</t>
+  </si>
+  <si>
+    <t>CRUD espectaculos</t>
+  </si>
+  <si>
+    <t>Administrar metodos de pago</t>
+  </si>
+  <si>
+    <t>CRUD metodos de pago</t>
+  </si>
+  <si>
+    <t>Administrar empresas de hospedaje</t>
+  </si>
+  <si>
+    <t>CRUD empresas de hospedaje</t>
+  </si>
+  <si>
+    <t>Administrar empresas de transporte</t>
+  </si>
+  <si>
+    <t>CRUD empresas de transporte</t>
+  </si>
+  <si>
+    <t>Administrar usuarios</t>
+  </si>
+  <si>
+    <t>CRUD usuarios</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Registrarse en el sistema</t>
+  </si>
+  <si>
+    <t>CRUD cliente</t>
+  </si>
+  <si>
+    <t>Seleccionar espectaculo</t>
+  </si>
+  <si>
+    <t>Consultar disponibilidad hospedaje</t>
+  </si>
+  <si>
+    <t>Consultar disponibilidad transporte</t>
+  </si>
+  <si>
+    <t>Reservar espectaculo</t>
+  </si>
+  <si>
+    <t>Seleccionar fecha de hospedaje</t>
+  </si>
+  <si>
+    <t>Reservar hospedaje</t>
+  </si>
+  <si>
+    <t>Seleccionar fecha de transporte</t>
+  </si>
+  <si>
+    <t>Reservar transporte</t>
+  </si>
+  <si>
+    <t>Seleccionar medio de pago</t>
+  </si>
+  <si>
+    <t>Redireccionar a medio de pago seleccionado</t>
+  </si>
+  <si>
+    <t>Generar voucher de pago</t>
+  </si>
+  <si>
+    <t>Imprimir voucher de pago</t>
+  </si>
+  <si>
+    <t>Verificar medio de pago</t>
+  </si>
+  <si>
+    <t>Redireccionar a pasarela de pagos</t>
+  </si>
+  <si>
+    <t>Adjuntar comprobante de pago</t>
+  </si>
+  <si>
+    <t>Asesor</t>
+  </si>
+  <si>
+    <t>Cambiar datos del cliente</t>
+  </si>
+  <si>
+    <t>Validar pago del usuario</t>
+  </si>
+  <si>
+    <t>Cambiar estado de reserva</t>
+  </si>
+  <si>
+    <t>Cambiar fecha de hospedaje</t>
+  </si>
+  <si>
+    <t>Modificar reserva hospedaje</t>
+  </si>
+  <si>
+    <t>Cambiar fecha de transporte</t>
+  </si>
+  <si>
+    <t>Modificar reserva transporte</t>
+  </si>
+  <si>
+    <t>Usuario autenticado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuario autorizado </t>
+  </si>
+  <si>
+    <t>Espectaculo comprado</t>
+  </si>
+  <si>
+    <t>Hospedaje comprado</t>
+  </si>
+  <si>
+    <t>Transporte comprado</t>
+  </si>
+  <si>
+    <t>Metodo de pago seleccionado</t>
+  </si>
+  <si>
+    <t>voucher de pago generado</t>
+  </si>
+  <si>
+    <t>Registrar venta en sistema de contabilidad</t>
+  </si>
+  <si>
+    <t>Venta registrada en contabilidad</t>
+  </si>
+  <si>
+    <t>Validar pago en efectivo</t>
+  </si>
+  <si>
+    <t>Views</t>
+  </si>
+  <si>
+    <t>Pantalla de inicio de sesion donde se solicite informacion del usuario</t>
+  </si>
+  <si>
+    <t>Realizar pago en entidad bancaria</t>
+  </si>
+  <si>
+    <t>Pago realizado</t>
+  </si>
+  <si>
+    <t>Pago en efectivo validado</t>
+  </si>
+  <si>
+    <t>Realizar cobro electronico al cliente</t>
+  </si>
+  <si>
+    <t>Cobro electronico realizado</t>
+  </si>
+  <si>
+    <t>Cliente obtiene el voucher a traves de un PDF</t>
+  </si>
+  <si>
+    <t>Se presenta a traves de una vista varias opciones de pago al cliente</t>
+  </si>
+  <si>
+    <t>Voucher cancelado cargado</t>
+  </si>
+  <si>
+    <t>Cargar voucher cancelado</t>
+  </si>
+  <si>
+    <t>Cliente puede cargar el pago a traves de un formulario</t>
+  </si>
+  <si>
+    <t>Notificar al cliente estado de compra de paquete</t>
+  </si>
+  <si>
+    <t>Validar estado de reservas</t>
+  </si>
+  <si>
+    <t>Reservas validadas</t>
+  </si>
+  <si>
+    <t>Registro exitoso</t>
+  </si>
+  <si>
+    <t>Se presenta un formulario al cliente que dependiendo de su tipo tendra campos y procesos diferentes, ejemplo un proveedor será diferente a un cliente</t>
+  </si>
+  <si>
+    <t>Crear oferta de hotel</t>
+  </si>
+  <si>
+    <t>Crear oferta de espectaculo</t>
+  </si>
+  <si>
+    <t>Crear oferta de transporte</t>
+  </si>
+  <si>
+    <t>Oferta de hotel creada</t>
+  </si>
+  <si>
+    <t>Oferta de espectaculo creada</t>
+  </si>
+  <si>
+    <t>Oferta de transporte creada</t>
+  </si>
+  <si>
+    <t>Consultar reserva</t>
+  </si>
+  <si>
+    <t>Reserva consultada</t>
+  </si>
+  <si>
+    <t>Seleccionar oferta hotel</t>
+  </si>
+  <si>
+    <t>Seleccionar oferta transporte</t>
+  </si>
+  <si>
+    <t>Seleccionar oferta espectaculo</t>
+  </si>
+  <si>
+    <t>Notificación enviada</t>
+  </si>
+  <si>
+    <t>Oferta hotel seleccionada</t>
+  </si>
+  <si>
+    <t>Oferta transporte seleccionada</t>
+  </si>
+  <si>
+    <t>Oferta espectaculo seleccionada</t>
+  </si>
+  <si>
+    <t>A traves de la seccion de hoteles</t>
+  </si>
+  <si>
+    <t>A traves de la seccion de transporte</t>
+  </si>
+  <si>
+    <t>A traves de la seccion de espectaculo</t>
+  </si>
+  <si>
+    <t>Eliminar oferta de hotel</t>
+  </si>
+  <si>
+    <t>Eliminar oferta de espectaculo</t>
+  </si>
+  <si>
+    <t>Eliminar oferta de transporte</t>
+  </si>
+  <si>
+    <t>Oferta de hotel Eliminar</t>
+  </si>
+  <si>
+    <t>Oferta de espectaculo Eliminada</t>
+  </si>
+  <si>
+    <t>Oferta de transporte Eliminada</t>
+  </si>
+  <si>
+    <t>Sistema / Asesor</t>
+  </si>
+  <si>
+    <t>Modificar oferta de hotel</t>
+  </si>
+  <si>
+    <t>Modificar oferta de espectaculo</t>
+  </si>
+  <si>
+    <t>Modificar oferta de transporte</t>
+  </si>
+  <si>
+    <t>Oferta de hotel Modificada</t>
+  </si>
+  <si>
+    <t>Oferta de espectaculo Modificada</t>
+  </si>
+  <si>
+    <t>Oferta de transporte Modificada</t>
+  </si>
+  <si>
+    <t>Modificación exitosa</t>
+  </si>
+  <si>
+    <t>Eliminar registro en el sistema</t>
+  </si>
+  <si>
+    <t>Modificar registro en el sistema</t>
+  </si>
+  <si>
+    <t>Iniciar proceso de pago</t>
+  </si>
+  <si>
+    <t>Proceso de pago iniciado</t>
+  </si>
+  <si>
+    <t>Se muestra al cliente en el carrito de compras la opcion de ir a pagar</t>
+  </si>
+  <si>
+    <t>Reserva agregada al carro de compras</t>
+  </si>
+  <si>
+    <t>Editar reserva en el carrito de compras</t>
+  </si>
+  <si>
+    <t>Agregar reserva en el carrito de compras</t>
+  </si>
+  <si>
+    <t>Eliminar reserva en el carrito de compras</t>
+  </si>
+  <si>
+    <t>Reserva modificada al carro de compras</t>
+  </si>
+  <si>
+    <t>Reserva eliminada en el carro de compras</t>
+  </si>
+  <si>
+    <t>Se muestra al cliente en las reservas la opcion para agregar al carro</t>
+  </si>
+  <si>
+    <t>En el carro de compras el cliente puede modificar sus reservas</t>
+  </si>
+  <si>
+    <t>Las reservas deben tener una caneca ue le permita eliminar la reserva del carro de compra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,16 +502,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -119,13 +563,116 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,17 +989,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -468,7 +1015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -476,7 +1023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -484,7 +1031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -492,7 +1039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -500,7 +1047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -508,7 +1055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -516,7 +1063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -524,7 +1071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -532,7 +1079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -540,7 +1087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -548,7 +1095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -556,7 +1103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -564,7 +1111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -572,13 +1119,922 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44766BB-005B-4B43-A17F-1D8B4EAE630F}">
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="17"/>
+    </row>
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="17"/>
+    </row>
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="17"/>
+    </row>
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="17"/>
+    </row>
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="17"/>
+    </row>
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="17"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="17"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="17"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="17"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="17"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="17"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="17"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="17"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="17"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="17"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="17"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="17"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="17"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -586,15 +2042,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B15E3E03E1AD7446BDF689C502E7A622" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fda9e538e93838a131c130b5a9bc1e12">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="caaf86bb-f34e-4b93-b093-60d3332d5ae1" xmlns:ns3="4a789ff7-94a9-47b6-8e98-5aaf2906b9e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afc5d66db5d11a775d7172e99fd75728" ns2:_="" ns3:_="">
     <xsd:import namespace="caaf86bb-f34e-4b93-b093-60d3332d5ae1"/>
@@ -785,6 +2232,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -792,13 +2248,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBE29AB9-E991-4B3D-805E-01EA8C94CD27}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44358236-A875-499B-ACD2-BE59AF52E0DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="caaf86bb-f34e-4b93-b093-60d3332d5ae1"/>
+    <ds:schemaRef ds:uri="4a789ff7-94a9-47b6-8e98-5aaf2906b9e0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44358236-A875-499B-ACD2-BE59AF52E0DD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBE29AB9-E991-4B3D-805E-01EA8C94CD27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D9EFA85-9899-4B87-8482-E840AFF619C5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D9EFA85-9899-4B87-8482-E840AFF619C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="caaf86bb-f34e-4b93-b093-60d3332d5ae1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="4a789ff7-94a9-47b6-8e98-5aaf2906b9e0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>